--- a/data/stat probs/garrett temple stat probs - condition.xlsx
+++ b/data/stat probs/garrett temple stat probs - condition.xlsx
@@ -19,28 +19,28 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 after 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 after 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9 before 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 after 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 after 2023 full" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nyk 2023 full" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 before 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
@@ -575,28 +575,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1192,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,28 +1255,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1293,22 +1293,22 @@
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1325,16 +1325,16 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1372,70 +1372,6 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1450,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -1551,22 +1487,22 @@
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1583,16 +1519,16 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1609,10 +1545,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1630,70 +1566,6 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1771,28 +1643,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1803,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -1821,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1835,10 +1707,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -1867,10 +1739,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1899,10 +1771,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1931,10 +1803,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2029,28 +1901,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2061,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -2079,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2093,10 +1965,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -2125,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2157,10 +2029,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2189,10 +2061,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2219,6 +2091,522 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,28 +2675,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -2501,394 +2889,6 @@
       </c>
       <c r="J8" t="n">
         <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F3" t="n">
-        <v>70</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="n">
-        <v>80</v>
-      </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>90</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>70</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>70</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2965,28 +2965,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -3187,6 +3187,296 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
+        <v>70</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80</v>
+      </c>
+      <c r="I3" t="n">
+        <v>60</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>90</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>70</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3284,7 +3574,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3353,28 +3741,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3574,7 +3962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3643,28 +4031,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3856,394 +4244,6 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4321,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4339,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4385,10 +4385,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4515,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4533,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4547,28 +4547,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4579,10 +4579,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4611,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4709,28 +4709,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -4747,10 +4747,10 @@
         <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G3" t="n">
         <v>50</v>
@@ -4779,10 +4779,10 @@
         <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4903,28 +4903,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -4941,10 +4941,10 @@
         <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G3" t="n">
         <v>50</v>
@@ -4973,10 +4973,10 @@
         <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5097,28 +5097,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -5129,10 +5129,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
         <v>50</v>
@@ -5147,10 +5147,10 @@
         <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -5161,16 +5161,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5291,28 +5291,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -5549,28 +5549,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -5581,10 +5581,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
         <v>50</v>
@@ -5599,10 +5599,10 @@
         <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -5613,16 +5613,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5645,10 +5645,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5675,6 +5675,394 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5749,16 +6137,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5836,7 +6224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5911,16 +6299,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5990,394 +6378,6 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75</v>
-      </c>
-      <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75</v>
-      </c>
-      <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6461,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6591,10 +6591,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6721,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6851,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7073,28 +7073,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -7625,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -7637,16 +7637,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7819,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -7831,16 +7831,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8013,28 +8013,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8271,28 +8271,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8529,10 +8529,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -8703,10 +8703,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9015,28 +9015,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -9305,22 +9305,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9467,10 +9467,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9797,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9927,10 +9927,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10057,10 +10057,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10311,10 +10311,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -10329,10 +10329,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10505,10 +10505,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -10523,10 +10523,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10699,28 +10699,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10957,28 +10957,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -11247,28 +11247,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11511,16 +11511,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11641,16 +11641,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11771,16 +11771,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11901,16 +11901,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12221,28 +12221,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12415,28 +12415,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12609,16 +12609,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12627,10 +12627,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12867,28 +12867,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13061,16 +13061,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13079,10 +13079,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13319,16 +13319,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13545,16 +13545,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13771,16 +13771,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13997,16 +13997,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -14241,10 +14241,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14513,10 +14513,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -14531,10 +14531,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14803,10 +14803,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -14821,10 +14821,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15093,10 +15093,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -15111,10 +15111,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15383,10 +15383,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -15395,10 +15395,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15545,28 +15545,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15739,10 +15739,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -15751,10 +15751,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15901,10 +15901,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -15913,10 +15913,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16063,10 +16063,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -16075,10 +16075,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16421,28 +16421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16711,28 +16711,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17001,28 +17001,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17291,28 +17291,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17587,10 +17587,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
